--- a/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/typed-domains-2018-1.xlsx
+++ b/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/typed-domains-2018-1.xlsx
@@ -17,11 +17,35 @@
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
       <family val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -52,10 +76,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" numFmtId="0" fontId="1" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="0" fontId="2" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="0" fontId="3" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="0" fontId="4" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0"/>
@@ -76,89 +104,89 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="34.1"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="9.9"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="13.200000000000001"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="27.500000000000004"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="26.4"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="23.099999999999998"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="14.85"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="20.900000000000002"/>
-    <col min="8" max="8" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="9" max="9" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="10" max="10" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="11" max="11" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="12" max="12" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="13" max="13" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="14" max="14" bestFit="1" customWidth="1" width="18.700000000000003"/>
+    <col min="8" max="8" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="9" max="9" bestFit="1" customWidth="1" width="21.45"/>
+    <col min="10" max="10" bestFit="1" customWidth="1" width="24.75"/>
+    <col min="11" max="11" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="12" max="12" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="13" max="13" bestFit="1" customWidth="1" width="21.45"/>
+    <col min="14" max="14" bestFit="1" customWidth="1" width="28.049999999999997"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>CODEVALUE</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>INFORMATIONDOMAIN</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>LANGUAGECODE</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>DEFAULTCODE</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>PREFLABEL_FI</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>PREFLABEL_EN</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>DESCRIPTION_FI</t>
         </is>
       </c>
-      <c r="J1" s="0" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>DESCRIPTION_EN</t>
         </is>
       </c>
-      <c r="K1" s="0" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>STARTDATE</t>
         </is>
       </c>
-      <c r="L1" s="0" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>ENDDATE</t>
         </is>
       </c>
-      <c r="M1" s="0" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>CODESSHEET</t>
         </is>
       </c>
-      <c r="N1" s="0" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>EXTENSIONSSHEET</t>
         </is>
@@ -167,7 +195,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>58328bc5-0ff5-474d-99c7-505d29068228</t>
+          <t>8ca74aff-acc3-489a-84b5-d8e5bcbbeed9</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -237,64 +265,64 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="33.0"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="12.100000000000001"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="9.9"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="14.85"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="22.0"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="13.200000000000001"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="23.1"/>
-    <col min="8" max="8" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="9" max="9" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="10" max="10" bestFit="1" customWidth="1" width="11.0"/>
+    <col min="8" max="8" bestFit="1" customWidth="1" width="24.75"/>
+    <col min="9" max="9" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="10" max="10" bestFit="1" customWidth="1" width="16.5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>CODEVALUE</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>BROADER</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>PREFLABEL_FI</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>PREFLABEL_EN</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>DESCRIPTION_FI</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>DESCRIPTION_EN</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>STARTDATE</t>
         </is>
       </c>
-      <c r="J1" s="0" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>ENDDATE</t>
         </is>
@@ -303,7 +331,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>994ccf30-bde9-4866-8a37-c1b2d46bfe4b</t>
+          <t>d631ea59-b7e0-45a7-bab6-1202febdcfb0</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -339,7 +367,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>559904fe-cc83-49b4-b628-6bca9f28eaa3</t>
+          <t>e84d47f1-3c98-4a11-a682-12efd31bfc1f</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -375,7 +403,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>795756d3-cb04-47a6-9a9b-9f276006e5c5</t>
+          <t>c7f620a8-ebb9-4162-9049-29ee41c3fc05</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -411,7 +439,7 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>31964a79-dec4-42f5-8ac0-9c140f8b54e3</t>
+          <t>8a96a5a3-0c9c-4f75-a155-56e9cd757204</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
@@ -447,7 +475,7 @@
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>fccab370-e8fa-4c4e-bd32-f826700ee5fb</t>
+          <t>215cfbd4-7f1e-439b-9901-501385b2f6da</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
@@ -483,7 +511,7 @@
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>091e1cc2-6bea-4859-a851-dd278db93e4c</t>
+          <t>1810cf3c-004c-4c47-9c59-24dc16e92bd0</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
@@ -519,7 +547,7 @@
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>fdaa329e-b64c-4827-b58f-8122b92c779b</t>
+          <t>237c79d3-be2d-4337-93b3-86650cf83aa5</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
@@ -555,7 +583,7 @@
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>2f9108a8-f501-4ea7-a36f-84baf5875e0e</t>
+          <t>f83242ab-f0a3-4893-9a61-44b79f4bd12e</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
@@ -608,59 +636,59 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="34.1"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="9.9"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="7" max="7" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="8" max="8" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="9" max="9" bestFit="1" customWidth="1" width="23.1"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="30.800000000000004"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="14.85"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="24.75"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="7" max="7" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="8" max="8" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="9" max="9" bestFit="1" customWidth="1" width="24.75"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>CODEVALUE</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>PROPERTYTYPE</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>PREFLABEL_FI</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>PREFLABEL_EN</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>STARTDATE</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>ENDDATE</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>MEMBERSSHEET</t>
         </is>
@@ -669,7 +697,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>be284738-2d01-4047-ae69-fd01fc4dbd16</t>
+          <t>e92b59db-25a5-428c-af1d-afa923d9b076</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -717,23 +745,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="33.0"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="7.700000000000001"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="20.900000000000002"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="34.1"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="11.549999999999999"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="31.349999999999998"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>CODE</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>DPMDOMAINDATATYPE</t>
         </is>
@@ -742,7 +770,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>db3de3c0-91f1-4b24-9f72-cd840ebfe89b</t>
+          <t>774b3968-a678-4354-a4be-d27b469f6ec0</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -759,7 +787,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>42c209dd-6ca9-48d0-8922-731becacda36</t>
+          <t>db9d97b3-8eab-4f0d-8ee9-b0fffaa6af72</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -776,7 +804,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>9e5319f1-6d6c-49d6-ae9e-34b6ba9fc52f</t>
+          <t>9e51a057-2b6a-45a7-a3c7-2f63b2f6c9a3</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -793,7 +821,7 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>225bdb1d-0ef8-4ed6-83fa-916f08edc993</t>
+          <t>28604848-96aa-426e-aae3-a7e6bd86d7a9</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
@@ -810,7 +838,7 @@
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>c36cf5bd-d5e5-4c1a-915f-5d53323c7abb</t>
+          <t>30a2c744-9b42-4ef5-a4f2-a0dd7fe59860</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
@@ -827,7 +855,7 @@
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>8b1f7bb5-9b32-43c2-a0e9-3cc946fb272a</t>
+          <t>25103273-459c-4ef9-9e74-93b5c707754f</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
@@ -844,7 +872,7 @@
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>e28e91ca-d40e-4f31-a517-1a4503f3612f</t>
+          <t>b48a8bc7-bd8a-4569-b946-76ee31a13862</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
@@ -861,7 +889,7 @@
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>070db73c-0980-42d1-aec6-bdecca65139a</t>
+          <t>445e5ffe-626f-4acb-b0ed-0d0b22c00ef5</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">

--- a/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/typed-domains-2018-1.xlsx
+++ b/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/typed-domains-2018-1.xlsx
@@ -104,7 +104,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="27.500000000000004"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="36.300000000000004"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="26.4"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="23.099999999999998"/>
@@ -195,7 +195,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>8ca74aff-acc3-489a-84b5-d8e5bcbbeed9</t>
+          <t>41428e0e-16e0-4761-bf43-3a1221e125d4</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -331,7 +331,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>d631ea59-b7e0-45a7-bab6-1202febdcfb0</t>
+          <t>eb2c76c7-3e52-4afa-9ee9-bf06d0c801c4</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -367,7 +367,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>e84d47f1-3c98-4a11-a682-12efd31bfc1f</t>
+          <t>701c21b8-3b02-4adc-9acb-79f6be5fbe8d</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -403,7 +403,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>c7f620a8-ebb9-4162-9049-29ee41c3fc05</t>
+          <t>eaefdc8e-45a2-41ec-9cc4-99d28d687ef4</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -439,7 +439,7 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>8a96a5a3-0c9c-4f75-a155-56e9cd757204</t>
+          <t>7b9c3147-a9d6-4c96-ac35-f741651e721e</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
@@ -475,7 +475,7 @@
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>215cfbd4-7f1e-439b-9901-501385b2f6da</t>
+          <t>32d88269-a59e-4505-92ac-7fd2a7e053e7</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
@@ -511,7 +511,7 @@
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>1810cf3c-004c-4c47-9c59-24dc16e92bd0</t>
+          <t>d3a2e1fe-a9ba-49e8-a553-5b41094aa138</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
@@ -547,7 +547,7 @@
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>237c79d3-be2d-4337-93b3-86650cf83aa5</t>
+          <t>fe5f0c87-5b80-4e9c-a0a3-6e34814c0fde</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
@@ -583,7 +583,7 @@
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>f83242ab-f0a3-4893-9a61-44b79f4bd12e</t>
+          <t>6ab3e74d-285a-4e22-887e-681bc696a1cb</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
@@ -636,7 +636,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="30.800000000000004"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="33.0"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="14.85"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="24.75"/>
@@ -697,7 +697,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>e92b59db-25a5-428c-af1d-afa923d9b076</t>
+          <t>8134f246-8059-4435-a4d2-06cc1ce088e1</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -745,7 +745,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="34.1"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="36.300000000000004"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="11.549999999999999"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="31.349999999999998"/>
   </cols>
@@ -770,7 +770,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>774b3968-a678-4354-a4be-d27b469f6ec0</t>
+          <t>5791e8c1-a618-4c45-97f6-f67a46bdbf96</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -787,7 +787,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>db9d97b3-8eab-4f0d-8ee9-b0fffaa6af72</t>
+          <t>78a55fe2-6b50-4274-a1cb-3d8e2ff7bea9</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -804,7 +804,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>9e51a057-2b6a-45a7-a3c7-2f63b2f6c9a3</t>
+          <t>8dd2f75d-ffb9-4a99-964a-230287adbdf6</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -821,7 +821,7 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>28604848-96aa-426e-aae3-a7e6bd86d7a9</t>
+          <t>9e126408-7159-4871-b5ab-7bb0343eda93</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>30a2c744-9b42-4ef5-a4f2-a0dd7fe59860</t>
+          <t>c8f8f88b-6ae1-4efd-bb34-35e33b675e0a</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
@@ -855,7 +855,7 @@
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>25103273-459c-4ef9-9e74-93b5c707754f</t>
+          <t>a5392778-b3d5-4bdc-bda7-74b19aa92d72</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
@@ -872,7 +872,7 @@
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>b48a8bc7-bd8a-4569-b946-76ee31a13862</t>
+          <t>f416fad4-24cd-41b2-97d9-c076b4e4f2e3</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
@@ -889,7 +889,7 @@
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>445e5ffe-626f-4acb-b0ed-0d0b22c00ef5</t>
+          <t>961c73d4-89b6-4513-9eb7-aa7719a236f6</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">

--- a/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/typed-domains-2018-1.xlsx
+++ b/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/typed-domains-2018-1.xlsx
@@ -195,7 +195,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>41428e0e-16e0-4761-bf43-3a1221e125d4</t>
+          <t>2299a20c-3bb2-41d5-b158-b2d9b24511db</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -264,7 +264,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="33.0"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="36.300000000000004"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="14.85"/>
@@ -331,7 +331,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>eb2c76c7-3e52-4afa-9ee9-bf06d0c801c4</t>
+          <t>87ca86c4-df8c-4660-9be7-047a0add46f0</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -367,7 +367,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>701c21b8-3b02-4adc-9acb-79f6be5fbe8d</t>
+          <t>ea4363c5-5162-4737-bd03-1e7565d3c524</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -403,7 +403,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>eaefdc8e-45a2-41ec-9cc4-99d28d687ef4</t>
+          <t>2bf2755f-7501-4626-a8a8-fe7ab788f422</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -439,7 +439,7 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>7b9c3147-a9d6-4c96-ac35-f741651e721e</t>
+          <t>a74070df-d59e-4e19-87b8-d720b96852c8</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
@@ -475,7 +475,7 @@
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>32d88269-a59e-4505-92ac-7fd2a7e053e7</t>
+          <t>f1392d9b-1deb-4961-8d47-e486e3205e8c</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
@@ -511,7 +511,7 @@
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>d3a2e1fe-a9ba-49e8-a553-5b41094aa138</t>
+          <t>46efc314-6b14-49fe-aa0e-924137d83737</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
@@ -547,7 +547,7 @@
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>fe5f0c87-5b80-4e9c-a0a3-6e34814c0fde</t>
+          <t>7a163caa-eb9e-466f-8c27-1c2edd9b995e</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
@@ -583,7 +583,7 @@
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>6ab3e74d-285a-4e22-887e-681bc696a1cb</t>
+          <t>127170e7-cf38-4571-9972-709c856d7417</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
@@ -636,7 +636,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="33.0"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="31.900000000000002"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="14.85"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="24.75"/>
@@ -697,7 +697,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>8134f246-8059-4435-a4d2-06cc1ce088e1</t>
+          <t>4eac6323-a1b0-400f-9c63-b4503a058690</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -745,7 +745,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="36.300000000000004"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="34.1"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="11.549999999999999"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="31.349999999999998"/>
   </cols>
@@ -770,7 +770,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>5791e8c1-a618-4c45-97f6-f67a46bdbf96</t>
+          <t>957db9f9-0959-4e0b-b854-1d6caf5153e0</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -787,7 +787,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>78a55fe2-6b50-4274-a1cb-3d8e2ff7bea9</t>
+          <t>c55dd8f7-55e2-4b4a-923d-9b8aaf9fc960</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -804,7 +804,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>8dd2f75d-ffb9-4a99-964a-230287adbdf6</t>
+          <t>31e02f70-cc31-4255-a520-95f31d4c62c1</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -821,7 +821,7 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>9e126408-7159-4871-b5ab-7bb0343eda93</t>
+          <t>2706a0b6-23f4-4f67-b42c-9b1b1aa511e3</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>c8f8f88b-6ae1-4efd-bb34-35e33b675e0a</t>
+          <t>476253e6-5aa4-4a80-9c06-bff2520dcc29</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
@@ -855,7 +855,7 @@
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>a5392778-b3d5-4bdc-bda7-74b19aa92d72</t>
+          <t>bfc3f817-411d-4cda-8320-28c801400b6c</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
@@ -872,7 +872,7 @@
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>f416fad4-24cd-41b2-97d9-c076b4e4f2e3</t>
+          <t>a7734bbc-2aa6-4153-8822-006f5e4468c8</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
@@ -889,7 +889,7 @@
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>961c73d4-89b6-4513-9eb7-aa7719a236f6</t>
+          <t>279332fe-7d82-4b9a-985b-b7fa5998fe00</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
